--- a/medicine/Enfance/Zazie_dans_le_métro/Zazie_dans_le_métro.xlsx
+++ b/medicine/Enfance/Zazie_dans_le_métro/Zazie_dans_le_métro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Zazie dans le métro est un roman de Raymond Queneau, paru en 1959. Parodie burlesque de multiples formes romanesques (roman d'apprentissage, épopée de l'Odyssée d'Homère), l'ouvrage met en scène une galerie de personnages pittoresques mais présente aussi une réflexion philosophique sur l'identité et la vérité. L'auteur recourt au néo-français à des fins comiques[1]. Queneau, jusque-là simplement reconnu par la critique, signe avec ce roman son premier succès populaire.
+Zazie dans le métro est un roman de Raymond Queneau, paru en 1959. Parodie burlesque de multiples formes romanesques (roman d'apprentissage, épopée de l'Odyssée d'Homère), l'ouvrage met en scène une galerie de personnages pittoresques mais présente aussi une réflexion philosophique sur l'identité et la vérité. L'auteur recourt au néo-français à des fins comiques. Queneau, jusque-là simplement reconnu par la critique, signe avec ce roman son premier succès populaire.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zazie, une jeune fille aux manières délurées, âgée approximativement de onze ans, arrive de sa province berrichonne, impatiente de connaître le métro parisien. Son oncle Gabriel l'attend à la gare et, à la grande déception de Zazie, lui annonce que le métro est fermé pour cause de grève. Il la jette directement dans un taxi, conduit par son ami Charles : direction le café Turandot, au-dessus duquel il vit. Là, Zazie fait la connaissance de Marceline, la femme de Gabriel, et de divers personnages du café : Turandot, le tenancier, Mado P'tits-Pieds, la serveuse... Le lendemain, Zazie s'enfuit avec l'intention de découvrir le métro et découvre le marché aux puces, en compagnie d'un étrange personnage qui la ramène chez Gabriel, qui se fait tour à tour passer pour un commerçant et pour un policier, et qui change de nom au fil de l'histoire (Pedro Surplus, puis Trouscaillon, puis Bertin Poirée et enfin Aroun Arachide).
 Gabriel emmène ensuite Zazie découvrir la tour Eiffel. Au pied de celle-ci, il est embarqué par un groupe de touristes étrangers qui le prennent pour un guide. Zazie, accompagnée de Trouscaillon et d'une femme rencontrée par hasard (la veuve Mouaque), finit par retrouver son oncle. Ce dernier invite alors le groupe de touristes puis l'ensemble de ses amis à assister au numéro de « danseuse » dans le cabaret homosexuel pour lequel il travaille. Dans le même temps, le type (Bertin Poirée) pénètre chez Marceline. Il tente de la séduire puis, frustré, de la violer. Mais Marceline s'enfuit.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet de départ de Queneau était d'en faire un roman policier ; on en retrouve quelques traces, par exemple lors du faux interrogatoire de Gabriel par Trouscaillon.
 Le sujet annoncé par le titre de l'ouvrage est prétendument le métro. En effet, le métro obsède Zazie, mais il est en grève lors de son séjour à Paris. La première question que peut se poser le lecteur est : Va-t-elle prendre le métro ?
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Zazie est le personnage éponyme du roman. Elle est considérée comme une antithèse de la petite fille modèle. Du haut de ses onze ans[2], elle incarne l'insolence, la surprise et la précocité. Queneau interroge son identité de petite fille en jouant sur l’âge et la sexualité de Zazie.  Au chapitre V, elle fugue comme une adolescente, mais réagit avec maturité, comme lorsqu'elle fait passer Turandot pour un satyre. Zazie est dotée d’un véritable esprit critique. Elle est lucide et réfléchie, et le démontre par sa capacité à manipuler et renverser les situations. Zazie est aussi un garçon manqué. Elle exhibe des signes de virilité en voulant des bloudjinnzes, jeans qui à l’époque paraissent encore très masculin. Mais elle l'est aussi parce qu’elle adopte fréquemment un comportement agressif envers les personnages masculins du roman. Queneau dote son héroïne de traits de langage singuliers : elle s'exprime dans une langue neuve et originale, au style très familier mais est pourvue d'un sens averti de la répartie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zazie est le personnage éponyme du roman. Elle est considérée comme une antithèse de la petite fille modèle. Du haut de ses onze ans, elle incarne l'insolence, la surprise et la précocité. Queneau interroge son identité de petite fille en jouant sur l’âge et la sexualité de Zazie.  Au chapitre V, elle fugue comme une adolescente, mais réagit avec maturité, comme lorsqu'elle fait passer Turandot pour un satyre. Zazie est dotée d’un véritable esprit critique. Elle est lucide et réfléchie, et le démontre par sa capacité à manipuler et renverser les situations. Zazie est aussi un garçon manqué. Elle exhibe des signes de virilité en voulant des bloudjinnzes, jeans qui à l’époque paraissent encore très masculin. Mais elle l'est aussi parce qu’elle adopte fréquemment un comportement agressif envers les personnages masculins du roman. Queneau dote son héroïne de traits de langage singuliers : elle s'exprime dans une langue neuve et originale, au style très familier mais est pourvue d'un sens averti de la répartie.
 Gabriel a environ 32 ans ; il est l’oncle de Zazie. Il est présenté comme un colosse. C’est le seul personnage à être décrit physiquement. Il se revendique comme un artiste. Parfois, on doute de son identité sexuelle. Il devient Gabriella le soir, quand il danse. L'auteur le dote de nombreuses caractéristiques associées de manière traditionnelle aux personnages féminins : il « rougit », a « la peau douce », se produit « en tutu ». On le qualifie d’hormosessuel car il évolue dans le même flou et la même indécision que ce terme. Il apparait parfois comme le double inversé de Zazie, comme la véritable petite fille du roman ; il parle avec calme, veut toujours boire de la grenadine. On peut voir dans une telle ambiguïté sexuelle une référence à l'indétermination du sexe des anges. Gabriel, dont le nom signifie « la force de Dieu », serait alors une figure de l'archange.
 Jeanne Lalochère est la mère de Zazie. Tout en apparaissant comme un personnage secondaire, elle est celle qui déclenche la narration. En effet, c'est elle qui emmène Zazie à la gare et la laisse à son oncle Gabriel, pendant qu'elle va rencontrer son amant. Elle est un des rares personnages du roman qui possède un nom et un prénom ; plusieurs hypothèses sont émises sur les choix de l'auteur. Jeanne, correspondrait à Jean, les gens, ce qui veut dire tout le monde. On a pu voir également dans le choix de ce prénom un lien avec la biographie de l'auteur, puisque Jeanne est le prénom de la femme qui a élevé Queneau ; elle renverrait aussi à Jeanne d'Arc, personnage qu'il aurait apprécié.
 Le « type »/ Pédro-Surplus/Trouscaillon/Bertin Poirée/Aroun Arachide est un personnage qui a plusieurs facettes. Il est vu successivement comme un satyre, un agent de police, un inspecteur puis comme « un prince de ce monde et de plusieurs territoires ». Il est perçu comme étant un acteur qui joue plusieurs personnages sans jamais dévoiler ce qu'il est réellement, comme lors de l'accusation de Zazie pour vol, lors de laquelle il ment et gagne à sa cause l'opinion des passants. S'il martèle ainsi une identité changeante, il évoque parfois l'incertitude de sa définition, en disant notamment : « c'est moi que j'ai perdu ».
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,9 +640,11 @@
           <t>Résumé des chapitres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Un résumé des chapitres est présenté ci-après[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un résumé des chapitres est présenté ci-après.
 Chapitre I : À la gare d'Austerlitz, Gabriel attend le train qui amène sa sœur Jeanne Lalochère et sa nièce Zazie, qu'il doit garder pendant trois jours. En patientant, il se dispute avec un couple qui critique son parfum. Lorsque le train arrive, il remarque sa nièce. Jeanne lui donne des recommandations et part. Zazie et son oncle partent de la gare et montent dans le taxi de Charles, un ami de Gabriel. Elle est déçue ne pas être allée dans le métro car les poinçonneurs sont en grève. À la fin du chapitre, tous les trois prennent un verre sur la terrasse d'un café.
 Chapitre II : Zazie et Gabriel arrivent devant La Cave tenue par Turandot. Ce dernier ne supporte pas la grossièreté de Zazie et ne veut pas d'elle sous son toit. Après cela, ils vont tous les deux dans l'appartement de l'oncle, situé au-dessus du bar. Le repas terminé, Marceline, la femme de Gabriel couche Zazie pendant que son mari se vernit les ongles. Après une dispute avec Turandot sur le fait que Zazie soit ici, Gabriel se prépare pour aller travailler. Cependant à la dernière minute, Marceline le rattrape pour lui donner son rouge à lèvres.
 Chapitre III : Au matin, Zazie sort de sa chambre silencieusement et rejoint l'entrée. Elle s'échappe de la maison mais Turandot l’aperçoit et la suit. Lorsqu'il l'aborde, elle crie et l'accuse de pédophilie. Le jugement de la foule oblige Turandot à retourner dans son bar. Après quelques verres, il informe Gabriel de l'histoire avec Zazie et pousse l'oncle à partir à la recherche de sa nièce. Une fois décidé à sortir, Gabriel croise Gridoux qui lui explique que c'est une fugue. Cependant, Gabriel décide de ne pas appeler la police et retourne se coucher.
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,10 +691,12 @@
           <t>Jeux sur le langage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Queneau intègre la langue orale dans son récit écrit[4], utilisant parfois des termes propres au langage familier, et malmenant l'orthographe, à l'image du terme : « Doukipudonktan », hapax qui ouvre le roman. Les modifications orthographiques réalisées touchent tous les types de mots, du substantif « meussieu » à la transcription phonétique de certains sigles, comme le STO, qui devient « essteo ». L'auteur transforme également certaines orthographes étrangères[5], utilisant notamment « bloudjinnzes » pour le mot anglais blue jeans. La syntaxe est également fréquemment malmenée dans le roman, notamment la concordance des temps de certains passages, délibérément erratique.  
-En jouant cependant du contraste entre ces formulations orales et populaires avec des termes relevant d'un niveau de langue beaucoup plus soutenu, Queneau remet en cause nombre de ce qu’il considère comme des incongruités de la langue. Exemple, la discussion pour la conjugaison conforme de vêtir : vêtissez-vous ou vêtez-vous, étudiée par « bdstyle.ca »[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queneau intègre la langue orale dans son récit écrit, utilisant parfois des termes propres au langage familier, et malmenant l'orthographe, à l'image du terme : « Doukipudonktan », hapax qui ouvre le roman. Les modifications orthographiques réalisées touchent tous les types de mots, du substantif « meussieu » à la transcription phonétique de certains sigles, comme le STO, qui devient « essteo ». L'auteur transforme également certaines orthographes étrangères, utilisant notamment « bloudjinnzes » pour le mot anglais blue jeans. La syntaxe est également fréquemment malmenée dans le roman, notamment la concordance des temps de certains passages, délibérément erratique.  
+En jouant cependant du contraste entre ces formulations orales et populaires avec des termes relevant d'un niveau de langue beaucoup plus soutenu, Queneau remet en cause nombre de ce qu’il considère comme des incongruités de la langue. Exemple, la discussion pour la conjugaison conforme de vêtir : vêtissez-vous ou vêtez-vous, étudiée par « bdstyle.ca ».
 </t>
         </is>
       </c>
@@ -685,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,7 +725,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Zazie dans le métro est classé à la 36e place du classement français établi au printemps 1999 des cent meilleurs livres du XXe siècle.
 Le personnage de Zazie a inspiré à Serge Gainsbourg le texte de la chanson Exercice en forme de Z, interprétée par Jane Birkin sur son album Ex fan des sixties, sorti en 1978.
@@ -719,7 +743,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zazie_dans_le_m%C3%A9tro</t>
+          <t>Zazie_dans_le_métro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -737,16 +761,18 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Zazie dans le métro (1960), film réalisé par Louis Malle.
-Le roman de Raymond Queneau a tout d'abord été adapté[6] au cinéma par le producteur Louis Malle un an après sa publication. En effet, en 1959, Louis Malle commence à travailler son adaptation avec le réalisateur Jean-Paul Rappeneau. Il s'ensuit, entre mars et mai 1960 le tournage à Paris mais aussi en studio. Le film sort alors en octobre 1960.  Louis Malle, qui est né le 30 octobre 1932 à Thumeries, est issu d'une famille relativement aisée. Cette situation idéale lui permet de suivre des études à l'IDHEC (Institut de hautes études cinématographiques). Il devient alors scénariste et producteur, ainsi, afin d'avoir plus de libertés, il crée sa propre société de production. Au cours de ses films, il souhaite dénoncer les valeurs bourgeoises, mais aussi traiter de sujets autour d'enfants et d'adolescents confrontés au monde des adultes. Pourtant, Louis Malle comprend que ses œuvres ne sont pas toujours bien vues, comme l'adaptation de Zazie jugée scandaleuse mais en avance sur son temps et c'est pour cette raison qu'il finit par s'exiler en Amérique[7].
-Zazie dans le métro (1966), bande dessinée de Jacques Carelman[8].
-Zazie dans le métro (1988), adaptation pour le théâtre Évelyne Levasseur et (1989) pour l’audio produit par Jacques Canetti pour la collection « Le Livre qui Parle »[9].
+Le roman de Raymond Queneau a tout d'abord été adapté au cinéma par le producteur Louis Malle un an après sa publication. En effet, en 1959, Louis Malle commence à travailler son adaptation avec le réalisateur Jean-Paul Rappeneau. Il s'ensuit, entre mars et mai 1960 le tournage à Paris mais aussi en studio. Le film sort alors en octobre 1960.  Louis Malle, qui est né le 30 octobre 1932 à Thumeries, est issu d'une famille relativement aisée. Cette situation idéale lui permet de suivre des études à l'IDHEC (Institut de hautes études cinématographiques). Il devient alors scénariste et producteur, ainsi, afin d'avoir plus de libertés, il crée sa propre société de production. Au cours de ses films, il souhaite dénoncer les valeurs bourgeoises, mais aussi traiter de sujets autour d'enfants et d'adolescents confrontés au monde des adultes. Pourtant, Louis Malle comprend que ses œuvres ne sont pas toujours bien vues, comme l'adaptation de Zazie jugée scandaleuse mais en avance sur son temps et c'est pour cette raison qu'il finit par s'exiler en Amérique.
+Zazie dans le métro (1966), bande dessinée de Jacques Carelman.
+Zazie dans le métro (1988), adaptation pour le théâtre Évelyne Levasseur et (1989) pour l’audio produit par Jacques Canetti pour la collection « Le Livre qui Parle ».
 Zazie dans le métro (2008), bande dessinée de Clément Oubrerie.
-Zazie dans le métro, texte de Raymond Queneau, illustré par Catherine Meurisse, Gallimard Jeunesse, 2009[10].
-Zazie (2012), pièce de théâtre musical, livret de Michel Beretti d'après Raymond Queneau, musique de Matteo Franceschini, créée le 5 février 2012 à Paris, au théâtre du Châtelet[11].
-Zazie dans le métro (2024), comédie musicale, texte de Raymond Queneau, chansons écrites par Zabou Breitman et composées par Reinhardt Wagner, mise en scène de Zabou Breitman[12].</t>
+Zazie dans le métro, texte de Raymond Queneau, illustré par Catherine Meurisse, Gallimard Jeunesse, 2009.
+Zazie (2012), pièce de théâtre musical, livret de Michel Beretti d'après Raymond Queneau, musique de Matteo Franceschini, créée le 5 février 2012 à Paris, au théâtre du Châtelet.
+Zazie dans le métro (2024), comédie musicale, texte de Raymond Queneau, chansons écrites par Zabou Breitman et composées par Reinhardt Wagner, mise en scène de Zabou Breitman.</t>
         </is>
       </c>
     </row>
